--- a/CodeSystem-CSIdInterconsulta.xlsx
+++ b/CodeSystem-CSIdInterconsulta.xlsx
@@ -135,7 +135,7 @@
     <t>Definition</t>
   </si>
   <si>
-    <t>00</t>
+    <t>01</t>
   </si>
   <si>
     <t>IdInterconsulta</t>
